--- a/data/TopOnePercent/Zhejiang Normal University.xlsx
+++ b/data/TopOnePercent/Zhejiang Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1767.0</v>
+        <v>1674.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>31640.0</v>
+        <v>31596.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>17.91</v>
+        <v>18.87</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>39.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,13 +206,13 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>710.0</v>
+        <v>700.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>15450.0</v>
+        <v>15784.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>21.76</v>
+        <v>22.55</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>8.0</v>
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1206.0</v>
+        <v>1157.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>7824.0</v>
+        <v>7226.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>6.49</v>
+        <v>6.25</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,16 +250,16 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>613.0</v>
+        <v>584.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>6640.0</v>
+        <v>6285.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>10.83</v>
+        <v>10.76</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
@@ -272,22 +272,22 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>6672.0</v>
+        <v>6393.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>88739.0</v>
+        <v>86631.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>13.3</v>
+        <v>13.55</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>150.0</v>
+        <v>158.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
